--- a/biology/Zoologie/Conure_cuivrée/Conure_cuivrée.xlsx
+++ b/biology/Zoologie/Conure_cuivrée/Conure_cuivrée.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Conure_cuivr%C3%A9e</t>
+          <t>Conure_cuivrée</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eupsittula pertinax
 La Conure cuivrée (Eupsittula pertinax, anciennement Aratinga pertinax) est une espèce d'oiseaux de taille plutôt modeste (environ 25 cm).
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Conure_cuivr%C3%A9e</t>
+          <t>Conure_cuivrée</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La tête et la poitrine de la Conure cuivrée sont fortement teintées de jaune orangé. Le reste du corps présente une dominante verte.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Conure_cuivr%C3%A9e</t>
+          <t>Conure_cuivrée</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,11 +557,48 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Suivant une étude phylogénique de Remsen et al. (2013), le genre Aratinga est entièrement redéfini pour être monophylétique. Le Congrès ornithologique international répercute ces changements dans sa classification de référence version 3.5 (2013), et la Conure cuivrée est déplacée vers le genre Eupsittula.
-Sous-espèces
-D'après la classification de référence (version 3.5, 2013) du Congrès ornithologique international, cette espèce est constituée de 14 sous-espèces.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Conure_cuivrée</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Conure_cuivr%C3%A9e</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">D'après la classification de référence (version 3.5, 2013) du Congrès ornithologique international, cette espèce est constituée de 14 sous-espèces.
 </t>
         </is>
       </c>
